--- a/portfolios/testIndex.xlsx
+++ b/portfolios/testIndex.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="0" yWindow="90" windowWidth="19155" windowHeight="12330"/>
   </bookViews>
   <sheets>
-    <sheet name="Portfolio Sheet" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
@@ -580,7 +580,7 @@
   <dimension ref="A1:AH42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21"/>
